--- a/539_calcu/sign8_1.xlsx
+++ b/539_calcu/sign8_1.xlsx
@@ -1436,7 +1436,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['01', '05', '07', '11', '15', '16', '19', '20']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '07'], ['01', '11'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['05', '07'], ['05', '11'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['07', '11'], ['07', '15'], ['07', '16'], ['07', '19'], ['07', '20'], ['11', '15'], ['11', '16'], ['11', '19'], ['11', '20'], ['15', '16'], ['15', '19'], ['15', '20'], ['16', '19'], ['16', '20'], ['19', '20']]</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['01', '05', '07', '11', '15', '16', '19', '20']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '07'], ['01', '11'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['05', '07'], ['05', '11'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['07', '11'], ['07', '15'], ['07', '16'], ['07', '19'], ['07', '20'], ['11', '15'], ['11', '16'], ['11', '19'], ['11', '20'], ['15', '16'], ['15', '19'], ['15', '20'], ['16', '19'], ['16', '20'], ['19', '20']]</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1622,12 +1622,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['01', '05', '15', '16', '19', '20', '21', '24']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['01', '21'], ['01', '24'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['19', '20'], ['19', '21'], ['19', '24'], ['20', '21'], ['20', '24'], ['21', '24']]</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['01', '05', '15', '16', '19', '20', '21', '24']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['01', '21'], ['01', '24'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['19', '20'], ['19', '21'], ['19', '24'], ['20', '21'], ['20', '24'], ['21', '24']]</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['01', '05', '15', '16', '19', '20', '21', '24']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['01', '21'], ['01', '24'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['19', '20'], ['19', '21'], ['19', '24'], ['20', '21'], ['20', '24'], ['21', '24']]</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['05', '15', '16', '19', '20', '21', '24', '27']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['05', '27'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['15', '27'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['19', '20'], ['19', '21'], ['19', '24'], ['19', '27'], ['20', '21'], ['20', '24'], ['20', '27'], ['21', '24'], ['21', '27'], ['24', '27']]</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['16', '20', '21', '24', '27', '32', '33', '01']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['16', '32'], ['16', '33'], ['16', '01'], ['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['27', '32'], ['27', '33'], ['27', '01'], ['32', '33'], ['32', '01'], ['33', '01']]</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2012,12 +2012,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['16', '20', '21', '24', '27', '32', '33', '01']</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['16', '32'], ['16', '33'], ['16', '01'], ['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['27', '32'], ['27', '33'], ['27', '01'], ['32', '33'], ['32', '01'], ['33', '01']]</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['16', '20', '21', '24', '27', '32', '33', '01']</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['16', '32'], ['16', '33'], ['16', '01'], ['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['27', '32'], ['27', '33'], ['27', '01'], ['32', '33'], ['32', '01'], ['33', '01']]</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2168,12 +2168,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '24', '27', '32', '33', '01', '02']</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['20', '02'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['21', '02'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['24', '02'], ['27', '32'], ['27', '33'], ['27', '01'], ['27', '02'], ['32', '33'], ['32', '01'], ['32', '02'], ['33', '01'], ['33', '02'], ['01', '02']]</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '24', '27', '32', '33', '02', '07', '09']</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '02'], ['21', '07'], ['21', '09'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '02'], ['24', '07'], ['24', '09'], ['27', '32'], ['27', '33'], ['27', '02'], ['27', '07'], ['27', '09'], ['32', '33'], ['32', '02'], ['32', '07'], ['32', '09'], ['33', '02'], ['33', '07'], ['33', '09'], ['02', '07'], ['02', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '24', '27', '32', '02', '07', '09', '11']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '24'], ['21', '27'], ['21', '32'], ['21', '02'], ['21', '07'], ['21', '09'], ['21', '11'], ['24', '27'], ['24', '32'], ['24', '02'], ['24', '07'], ['24', '09'], ['24', '11'], ['27', '32'], ['27', '02'], ['27', '07'], ['27', '09'], ['27', '11'], ['32', '02'], ['32', '07'], ['32', '09'], ['32', '11'], ['02', '07'], ['02', '09'], ['02', '11'], ['07', '09'], ['07', '11'], ['09', '11']]</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '32', '07', '09', '11', '17', '20', '24']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '32'], ['21', '07'], ['21', '09'], ['21', '11'], ['21', '17'], ['21', '20'], ['21', '24'], ['32', '07'], ['32', '09'], ['32', '11'], ['32', '17'], ['32', '20'], ['32', '24'], ['07', '09'], ['07', '11'], ['07', '17'], ['07', '20'], ['07', '24'], ['09', '11'], ['09', '17'], ['09', '20'], ['09', '24'], ['11', '17'], ['11', '20'], ['11', '24'], ['17', '20'], ['17', '24'], ['20', '24']]</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '07', '11', '17', '20', '24', '27', '32']</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '17'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['07', '11'], ['07', '17'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['11', '17'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['17', '20'], ['17', '24'], ['17', '27'], ['17', '32'], ['20', '24'], ['20', '27'], ['20', '32'], ['24', '27'], ['24', '32'], ['27', '32']]</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2558,12 +2558,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '07', '11', '20', '24', '27', '32', '33']</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['07', '11'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['07', '33'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['11', '33'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['24', '27'], ['24', '32'], ['24', '33'], ['27', '32'], ['27', '33'], ['32', '33']]</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '07', '11', '20', '24', '27', '32', '33']</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['07', '11'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['07', '33'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['11', '33'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['24', '27'], ['24', '32'], ['24', '33'], ['27', '32'], ['27', '33'], ['32', '33']]</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '07', '11', '20', '24', '27', '32', '33']</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['07', '11'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['07', '33'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['11', '33'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['24', '27'], ['24', '32'], ['24', '33'], ['27', '32'], ['27', '33'], ['32', '33']]</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '07', '20', '24', '32', '33', '37', '01']</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '20'], ['21', '24'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '01'], ['07', '20'], ['07', '24'], ['07', '32'], ['07', '33'], ['07', '37'], ['07', '01'], ['20', '24'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '01'], ['24', '32'], ['24', '33'], ['24', '37'], ['24', '01'], ['32', '33'], ['32', '37'], ['32', '01'], ['33', '37'], ['33', '01'], ['37', '01']]</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '24', '32', '33', '37', '05', '07']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '24'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['21', '24'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['24', '32'], ['24', '33'], ['24', '37'], ['24', '05'], ['24', '07'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['33', '37'], ['33', '05'], ['33', '07'], ['37', '05'], ['37', '07'], ['05', '07']]</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '32', '33', '37', '05', '07', '09']</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['21', '09'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['32', '09'], ['33', '37'], ['33', '05'], ['33', '07'], ['33', '09'], ['37', '05'], ['37', '07'], ['37', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '32', '33', '37', '05', '07', '09']</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['21', '09'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['32', '09'], ['33', '37'], ['33', '05'], ['33', '07'], ['33', '09'], ['37', '05'], ['37', '07'], ['37', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3104,12 +3104,12 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '32', '33', '37', '05', '07', '09']</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['21', '09'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['32', '09'], ['33', '37'], ['33', '05'], ['33', '07'], ['33', '09'], ['37', '05'], ['37', '07'], ['37', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '32', '33', '05', '07', '09', '11']</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '05'], ['20', '07'], ['20', '09'], ['20', '11'], ['21', '32'], ['21', '33'], ['21', '05'], ['21', '07'], ['21', '09'], ['21', '11'], ['32', '33'], ['32', '05'], ['32', '07'], ['32', '09'], ['32', '11'], ['33', '05'], ['33', '07'], ['33', '09'], ['33', '11'], ['05', '07'], ['05', '09'], ['05', '11'], ['07', '09'], ['07', '11'], ['09', '11']]</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3260,12 +3260,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '33', '05', '07', '09', '11', '24']</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '05'], ['20', '07'], ['20', '09'], ['20', '11'], ['20', '24'], ['21', '33'], ['21', '05'], ['21', '07'], ['21', '09'], ['21', '11'], ['21', '24'], ['33', '05'], ['33', '07'], ['33', '09'], ['33', '11'], ['33', '24'], ['05', '07'], ['05', '09'], ['05', '11'], ['05', '24'], ['07', '09'], ['07', '11'], ['07', '24'], ['09', '11'], ['09', '24'], ['11', '24']]</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3338,12 +3338,12 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '33', '05', '07', '09', '11', '24']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '05'], ['20', '07'], ['20', '09'], ['20', '11'], ['20', '24'], ['21', '33'], ['21', '05'], ['21', '07'], ['21', '09'], ['21', '11'], ['21', '24'], ['33', '05'], ['33', '07'], ['33', '09'], ['33', '11'], ['33', '24'], ['05', '07'], ['05', '09'], ['05', '11'], ['05', '24'], ['07', '09'], ['07', '11'], ['07', '24'], ['09', '11'], ['09', '24'], ['11', '24']]</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '33', '05', '09', '11', '24', '32']</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '05'], ['20', '09'], ['20', '11'], ['20', '24'], ['20', '32'], ['21', '33'], ['21', '05'], ['21', '09'], ['21', '11'], ['21', '24'], ['21', '32'], ['33', '05'], ['33', '09'], ['33', '11'], ['33', '24'], ['33', '32'], ['05', '09'], ['05', '11'], ['05', '24'], ['05', '32'], ['09', '11'], ['09', '24'], ['09', '32'], ['11', '24'], ['11', '32'], ['24', '32']]</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '33', '09', '11', '24', '32', '37']</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '09'], ['20', '11'], ['20', '24'], ['20', '32'], ['20', '37'], ['21', '33'], ['21', '09'], ['21', '11'], ['21', '24'], ['21', '32'], ['21', '37'], ['33', '09'], ['33', '11'], ['33', '24'], ['33', '32'], ['33', '37'], ['09', '11'], ['09', '24'], ['09', '32'], ['09', '37'], ['11', '24'], ['11', '32'], ['11', '37'], ['24', '32'], ['24', '37'], ['32', '37']]</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3572,12 +3572,12 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '33', '11', '24', '32', '02', '05']</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '24'], ['20', '32'], ['20', '02'], ['20', '05'], ['21', '33'], ['21', '11'], ['21', '24'], ['21', '32'], ['21', '02'], ['21', '05'], ['33', '11'], ['33', '24'], ['33', '32'], ['33', '02'], ['33', '05'], ['11', '24'], ['11', '32'], ['11', '02'], ['11', '05'], ['24', '32'], ['24', '02'], ['24', '05'], ['32', '02'], ['32', '05'], ['02', '05']]</t>
         </is>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3650,12 +3650,12 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '33', '11', '02', '05', '07', '09']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '02'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '33'], ['21', '11'], ['21', '02'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '11'], ['33', '02'], ['33', '05'], ['33', '07'], ['33', '09'], ['11', '02'], ['11', '05'], ['11', '07'], ['11', '09'], ['02', '05'], ['02', '07'], ['02', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '33', '11', '02', '07', '09', '10']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '02'], ['20', '07'], ['20', '09'], ['20', '10'], ['21', '33'], ['21', '11'], ['21', '02'], ['21', '07'], ['21', '09'], ['21', '10'], ['33', '11'], ['33', '02'], ['33', '07'], ['33', '09'], ['33', '10'], ['11', '02'], ['11', '07'], ['11', '09'], ['11', '10'], ['02', '07'], ['02', '09'], ['02', '10'], ['07', '09'], ['07', '10'], ['09', '10']]</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3806,12 +3806,12 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '33', '11', '02', '07', '10', '24']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '02'], ['20', '07'], ['20', '10'], ['20', '24'], ['21', '33'], ['21', '11'], ['21', '02'], ['21', '07'], ['21', '10'], ['21', '24'], ['33', '11'], ['33', '02'], ['33', '07'], ['33', '10'], ['33', '24'], ['11', '02'], ['11', '07'], ['11', '10'], ['11', '24'], ['02', '07'], ['02', '10'], ['02', '24'], ['07', '10'], ['07', '24'], ['10', '24']]</t>
         </is>
       </c>
     </row>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '33', '11', '20', '02', '07', '10', '24']</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '11'], ['21', '20'], ['21', '02'], ['21', '07'], ['21', '10'], ['21', '24'], ['33', '11'], ['33', '20'], ['33', '02'], ['33', '07'], ['33', '10'], ['33', '24'], ['11', '20'], ['11', '02'], ['11', '07'], ['11', '10'], ['11', '24'], ['20', '02'], ['20', '07'], ['20', '10'], ['20', '24'], ['02', '07'], ['02', '10'], ['02', '24'], ['07', '10'], ['07', '24'], ['10', '24']]</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3962,12 +3962,12 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '33', '11', '20', '02', '07', '10', '01']</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '11'], ['21', '20'], ['21', '02'], ['21', '07'], ['21', '10'], ['21', '01'], ['33', '11'], ['33', '20'], ['33', '02'], ['33', '07'], ['33', '10'], ['33', '01'], ['11', '20'], ['11', '02'], ['11', '07'], ['11', '10'], ['11', '01'], ['20', '02'], ['20', '07'], ['20', '10'], ['20', '01'], ['02', '07'], ['02', '10'], ['02', '01'], ['07', '10'], ['07', '01'], ['10', '01']]</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4040,12 +4040,12 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '33', '11', '20', '07', '10', '01', '02']</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '11'], ['21', '20'], ['21', '07'], ['21', '10'], ['21', '01'], ['21', '02'], ['33', '11'], ['33', '20'], ['33', '07'], ['33', '10'], ['33', '01'], ['33', '02'], ['11', '20'], ['11', '07'], ['11', '10'], ['11', '01'], ['11', '02'], ['20', '07'], ['20', '10'], ['20', '01'], ['20', '02'], ['07', '10'], ['07', '01'], ['07', '02'], ['10', '01'], ['10', '02'], ['01', '02']]</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4118,12 +4118,12 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '33', '20', '07', '10', '11', '01', '05']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '07'], ['21', '10'], ['21', '11'], ['21', '01'], ['21', '05'], ['33', '20'], ['33', '07'], ['33', '10'], ['33', '11'], ['33', '01'], ['33', '05'], ['20', '07'], ['20', '10'], ['20', '11'], ['20', '01'], ['20', '05'], ['07', '10'], ['07', '11'], ['07', '01'], ['07', '05'], ['10', '11'], ['10', '01'], ['10', '05'], ['11', '01'], ['11', '05'], ['01', '05']]</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '33', '20', '10', '01', '05', '07', '09']</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '10'], ['21', '01'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '20'], ['33', '10'], ['33', '01'], ['33', '05'], ['33', '07'], ['33', '09'], ['20', '10'], ['20', '01'], ['20', '05'], ['20', '07'], ['20', '09'], ['10', '01'], ['10', '05'], ['10', '07'], ['10', '09'], ['01', '05'], ['01', '07'], ['01', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4274,12 +4274,12 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '33', '20', '10', '01', '05', '07', '09']</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '10'], ['21', '01'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '20'], ['33', '10'], ['33', '01'], ['33', '05'], ['33', '07'], ['33', '09'], ['20', '10'], ['20', '01'], ['20', '05'], ['20', '07'], ['20', '09'], ['10', '01'], ['10', '05'], ['10', '07'], ['10', '09'], ['01', '05'], ['01', '07'], ['01', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21', '33', '20', '10', '01', '05', '07', '09']</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '10'], ['21', '01'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '20'], ['33', '10'], ['33', '01'], ['33', '05'], ['33', '07'], ['33', '09'], ['20', '10'], ['20', '01'], ['20', '05'], ['20', '07'], ['20', '09'], ['10', '01'], ['10', '05'], ['10', '07'], ['10', '09'], ['01', '05'], ['01', '07'], ['01', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4430,12 +4430,12 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '33', '10', '01', '07', '09', '24']</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '10'], ['20', '01'], ['20', '07'], ['20', '09'], ['20', '24'], ['21', '33'], ['21', '10'], ['21', '01'], ['21', '07'], ['21', '09'], ['21', '24'], ['33', '10'], ['33', '01'], ['33', '07'], ['33', '09'], ['33', '24'], ['10', '01'], ['10', '07'], ['10', '09'], ['10', '24'], ['01', '07'], ['01', '09'], ['01', '24'], ['07', '09'], ['07', '24'], ['09', '24']]</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4508,12 +4508,12 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '21', '10', '33', '01', '07', '09', '24']</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '10'], ['20', '33'], ['20', '01'], ['20', '07'], ['20', '09'], ['20', '24'], ['21', '10'], ['21', '33'], ['21', '01'], ['21', '07'], ['21', '09'], ['21', '24'], ['10', '33'], ['10', '01'], ['10', '07'], ['10', '09'], ['10', '24'], ['33', '01'], ['33', '07'], ['33', '09'], ['33', '24'], ['01', '07'], ['01', '09'], ['01', '24'], ['07', '09'], ['07', '24'], ['09', '24']]</t>
         </is>
       </c>
     </row>
@@ -38749,7 +38749,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '07'], ['01', '11'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['05', '07'], ['05', '11'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['07', '11'], ['07', '15'], ['07', '16'], ['07', '19'], ['07', '20'], ['11', '15'], ['11', '16'], ['11', '19'], ['11', '20'], ['15', '16'], ['15', '19'], ['15', '20'], ['16', '19'], ['16', '20'], ['19', '20']]</t>
         </is>
       </c>
     </row>
@@ -38789,7 +38789,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '07'], ['01', '11'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['05', '07'], ['05', '11'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['07', '11'], ['07', '15'], ['07', '16'], ['07', '19'], ['07', '20'], ['11', '15'], ['11', '16'], ['11', '19'], ['11', '20'], ['15', '16'], ['15', '19'], ['15', '20'], ['16', '19'], ['16', '20'], ['19', '20']]</t>
         </is>
       </c>
     </row>
@@ -38829,7 +38829,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['01', '21'], ['01', '24'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['19', '20'], ['19', '21'], ['19', '24'], ['20', '21'], ['20', '24'], ['21', '24']]</t>
         </is>
       </c>
     </row>
@@ -38869,7 +38869,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['01', '21'], ['01', '24'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['19', '20'], ['19', '21'], ['19', '24'], ['20', '21'], ['20', '24'], ['21', '24']]</t>
         </is>
       </c>
     </row>
@@ -38909,7 +38909,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['01', '21'], ['01', '24'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['19', '20'], ['19', '21'], ['19', '24'], ['20', '21'], ['20', '24'], ['21', '24']]</t>
         </is>
       </c>
     </row>
@@ -38949,7 +38949,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['05', '27'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['15', '27'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['19', '20'], ['19', '21'], ['19', '24'], ['19', '27'], ['20', '21'], ['20', '24'], ['20', '27'], ['21', '24'], ['21', '27'], ['24', '27']]</t>
         </is>
       </c>
     </row>
@@ -38989,7 +38989,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['16', '32'], ['16', '33'], ['16', '01'], ['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['27', '32'], ['27', '33'], ['27', '01'], ['32', '33'], ['32', '01'], ['33', '01']]</t>
         </is>
       </c>
     </row>
@@ -39029,7 +39029,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['16', '32'], ['16', '33'], ['16', '01'], ['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['27', '32'], ['27', '33'], ['27', '01'], ['32', '33'], ['32', '01'], ['33', '01']]</t>
         </is>
       </c>
     </row>
@@ -39069,7 +39069,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['16', '32'], ['16', '33'], ['16', '01'], ['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['27', '32'], ['27', '33'], ['27', '01'], ['32', '33'], ['32', '01'], ['33', '01']]</t>
         </is>
       </c>
     </row>
@@ -39109,7 +39109,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['20', '02'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['21', '02'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['24', '02'], ['27', '32'], ['27', '33'], ['27', '01'], ['27', '02'], ['32', '33'], ['32', '01'], ['32', '02'], ['33', '01'], ['33', '02'], ['01', '02']]</t>
         </is>
       </c>
     </row>
@@ -39149,7 +39149,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '02'], ['21', '07'], ['21', '09'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '02'], ['24', '07'], ['24', '09'], ['27', '32'], ['27', '33'], ['27', '02'], ['27', '07'], ['27', '09'], ['32', '33'], ['32', '02'], ['32', '07'], ['32', '09'], ['33', '02'], ['33', '07'], ['33', '09'], ['02', '07'], ['02', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -39189,7 +39189,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '24'], ['21', '27'], ['21', '32'], ['21', '02'], ['21', '07'], ['21', '09'], ['21', '11'], ['24', '27'], ['24', '32'], ['24', '02'], ['24', '07'], ['24', '09'], ['24', '11'], ['27', '32'], ['27', '02'], ['27', '07'], ['27', '09'], ['27', '11'], ['32', '02'], ['32', '07'], ['32', '09'], ['32', '11'], ['02', '07'], ['02', '09'], ['02', '11'], ['07', '09'], ['07', '11'], ['09', '11']]</t>
         </is>
       </c>
     </row>
@@ -39229,7 +39229,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '32'], ['21', '07'], ['21', '09'], ['21', '11'], ['21', '17'], ['21', '20'], ['21', '24'], ['32', '07'], ['32', '09'], ['32', '11'], ['32', '17'], ['32', '20'], ['32', '24'], ['07', '09'], ['07', '11'], ['07', '17'], ['07', '20'], ['07', '24'], ['09', '11'], ['09', '17'], ['09', '20'], ['09', '24'], ['11', '17'], ['11', '20'], ['11', '24'], ['17', '20'], ['17', '24'], ['20', '24']]</t>
         </is>
       </c>
     </row>
@@ -39269,7 +39269,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '17'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['07', '11'], ['07', '17'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['11', '17'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['17', '20'], ['17', '24'], ['17', '27'], ['17', '32'], ['20', '24'], ['20', '27'], ['20', '32'], ['24', '27'], ['24', '32'], ['27', '32']]</t>
         </is>
       </c>
     </row>
@@ -39309,7 +39309,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['07', '11'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['07', '33'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['11', '33'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['24', '27'], ['24', '32'], ['24', '33'], ['27', '32'], ['27', '33'], ['32', '33']]</t>
         </is>
       </c>
     </row>
@@ -39349,7 +39349,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['07', '11'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['07', '33'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['11', '33'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['24', '27'], ['24', '32'], ['24', '33'], ['27', '32'], ['27', '33'], ['32', '33']]</t>
         </is>
       </c>
     </row>
@@ -39389,7 +39389,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['07', '11'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['07', '33'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['11', '33'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['24', '27'], ['24', '32'], ['24', '33'], ['27', '32'], ['27', '33'], ['32', '33']]</t>
         </is>
       </c>
     </row>
@@ -39429,7 +39429,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '20'], ['21', '24'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '01'], ['07', '20'], ['07', '24'], ['07', '32'], ['07', '33'], ['07', '37'], ['07', '01'], ['20', '24'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '01'], ['24', '32'], ['24', '33'], ['24', '37'], ['24', '01'], ['32', '33'], ['32', '37'], ['32', '01'], ['33', '37'], ['33', '01'], ['37', '01']]</t>
         </is>
       </c>
     </row>
@@ -39469,7 +39469,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '24'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['21', '24'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['24', '32'], ['24', '33'], ['24', '37'], ['24', '05'], ['24', '07'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['33', '37'], ['33', '05'], ['33', '07'], ['37', '05'], ['37', '07'], ['05', '07']]</t>
         </is>
       </c>
     </row>
@@ -39509,7 +39509,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['21', '09'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['32', '09'], ['33', '37'], ['33', '05'], ['33', '07'], ['33', '09'], ['37', '05'], ['37', '07'], ['37', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -39549,7 +39549,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['21', '09'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['32', '09'], ['33', '37'], ['33', '05'], ['33', '07'], ['33', '09'], ['37', '05'], ['37', '07'], ['37', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -39589,7 +39589,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['21', '09'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['32', '09'], ['33', '37'], ['33', '05'], ['33', '07'], ['33', '09'], ['37', '05'], ['37', '07'], ['37', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -39629,7 +39629,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '05'], ['20', '07'], ['20', '09'], ['20', '11'], ['21', '32'], ['21', '33'], ['21', '05'], ['21', '07'], ['21', '09'], ['21', '11'], ['32', '33'], ['32', '05'], ['32', '07'], ['32', '09'], ['32', '11'], ['33', '05'], ['33', '07'], ['33', '09'], ['33', '11'], ['05', '07'], ['05', '09'], ['05', '11'], ['07', '09'], ['07', '11'], ['09', '11']]</t>
         </is>
       </c>
     </row>
@@ -39669,7 +39669,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '05'], ['20', '07'], ['20', '09'], ['20', '11'], ['20', '24'], ['21', '33'], ['21', '05'], ['21', '07'], ['21', '09'], ['21', '11'], ['21', '24'], ['33', '05'], ['33', '07'], ['33', '09'], ['33', '11'], ['33', '24'], ['05', '07'], ['05', '09'], ['05', '11'], ['05', '24'], ['07', '09'], ['07', '11'], ['07', '24'], ['09', '11'], ['09', '24'], ['11', '24']]</t>
         </is>
       </c>
     </row>
@@ -39709,7 +39709,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '05'], ['20', '07'], ['20', '09'], ['20', '11'], ['20', '24'], ['21', '33'], ['21', '05'], ['21', '07'], ['21', '09'], ['21', '11'], ['21', '24'], ['33', '05'], ['33', '07'], ['33', '09'], ['33', '11'], ['33', '24'], ['05', '07'], ['05', '09'], ['05', '11'], ['05', '24'], ['07', '09'], ['07', '11'], ['07', '24'], ['09', '11'], ['09', '24'], ['11', '24']]</t>
         </is>
       </c>
     </row>
@@ -39749,7 +39749,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '05'], ['20', '09'], ['20', '11'], ['20', '24'], ['20', '32'], ['21', '33'], ['21', '05'], ['21', '09'], ['21', '11'], ['21', '24'], ['21', '32'], ['33', '05'], ['33', '09'], ['33', '11'], ['33', '24'], ['33', '32'], ['05', '09'], ['05', '11'], ['05', '24'], ['05', '32'], ['09', '11'], ['09', '24'], ['09', '32'], ['11', '24'], ['11', '32'], ['24', '32']]</t>
         </is>
       </c>
     </row>
@@ -39789,7 +39789,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '09'], ['20', '11'], ['20', '24'], ['20', '32'], ['20', '37'], ['21', '33'], ['21', '09'], ['21', '11'], ['21', '24'], ['21', '32'], ['21', '37'], ['33', '09'], ['33', '11'], ['33', '24'], ['33', '32'], ['33', '37'], ['09', '11'], ['09', '24'], ['09', '32'], ['09', '37'], ['11', '24'], ['11', '32'], ['11', '37'], ['24', '32'], ['24', '37'], ['32', '37']]</t>
         </is>
       </c>
     </row>
@@ -39829,7 +39829,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '24'], ['20', '32'], ['20', '02'], ['20', '05'], ['21', '33'], ['21', '11'], ['21', '24'], ['21', '32'], ['21', '02'], ['21', '05'], ['33', '11'], ['33', '24'], ['33', '32'], ['33', '02'], ['33', '05'], ['11', '24'], ['11', '32'], ['11', '02'], ['11', '05'], ['24', '32'], ['24', '02'], ['24', '05'], ['32', '02'], ['32', '05'], ['02', '05']]</t>
         </is>
       </c>
     </row>
@@ -39869,7 +39869,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '02'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '33'], ['21', '11'], ['21', '02'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '11'], ['33', '02'], ['33', '05'], ['33', '07'], ['33', '09'], ['11', '02'], ['11', '05'], ['11', '07'], ['11', '09'], ['02', '05'], ['02', '07'], ['02', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -39909,7 +39909,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '02'], ['20', '07'], ['20', '09'], ['20', '10'], ['21', '33'], ['21', '11'], ['21', '02'], ['21', '07'], ['21', '09'], ['21', '10'], ['33', '11'], ['33', '02'], ['33', '07'], ['33', '09'], ['33', '10'], ['11', '02'], ['11', '07'], ['11', '09'], ['11', '10'], ['02', '07'], ['02', '09'], ['02', '10'], ['07', '09'], ['07', '10'], ['09', '10']]</t>
         </is>
       </c>
     </row>
@@ -39949,7 +39949,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '02'], ['20', '07'], ['20', '10'], ['20', '24'], ['21', '33'], ['21', '11'], ['21', '02'], ['21', '07'], ['21', '10'], ['21', '24'], ['33', '11'], ['33', '02'], ['33', '07'], ['33', '10'], ['33', '24'], ['11', '02'], ['11', '07'], ['11', '10'], ['11', '24'], ['02', '07'], ['02', '10'], ['02', '24'], ['07', '10'], ['07', '24'], ['10', '24']]</t>
         </is>
       </c>
     </row>
@@ -39989,7 +39989,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '11'], ['21', '20'], ['21', '02'], ['21', '07'], ['21', '10'], ['21', '24'], ['33', '11'], ['33', '20'], ['33', '02'], ['33', '07'], ['33', '10'], ['33', '24'], ['11', '20'], ['11', '02'], ['11', '07'], ['11', '10'], ['11', '24'], ['20', '02'], ['20', '07'], ['20', '10'], ['20', '24'], ['02', '07'], ['02', '10'], ['02', '24'], ['07', '10'], ['07', '24'], ['10', '24']]</t>
         </is>
       </c>
     </row>
@@ -40029,7 +40029,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '11'], ['21', '20'], ['21', '02'], ['21', '07'], ['21', '10'], ['21', '01'], ['33', '11'], ['33', '20'], ['33', '02'], ['33', '07'], ['33', '10'], ['33', '01'], ['11', '20'], ['11', '02'], ['11', '07'], ['11', '10'], ['11', '01'], ['20', '02'], ['20', '07'], ['20', '10'], ['20', '01'], ['02', '07'], ['02', '10'], ['02', '01'], ['07', '10'], ['07', '01'], ['10', '01']]</t>
         </is>
       </c>
     </row>
@@ -40069,7 +40069,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '11'], ['21', '20'], ['21', '07'], ['21', '10'], ['21', '01'], ['21', '02'], ['33', '11'], ['33', '20'], ['33', '07'], ['33', '10'], ['33', '01'], ['33', '02'], ['11', '20'], ['11', '07'], ['11', '10'], ['11', '01'], ['11', '02'], ['20', '07'], ['20', '10'], ['20', '01'], ['20', '02'], ['07', '10'], ['07', '01'], ['07', '02'], ['10', '01'], ['10', '02'], ['01', '02']]</t>
         </is>
       </c>
     </row>
@@ -40109,7 +40109,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '07'], ['21', '10'], ['21', '11'], ['21', '01'], ['21', '05'], ['33', '20'], ['33', '07'], ['33', '10'], ['33', '11'], ['33', '01'], ['33', '05'], ['20', '07'], ['20', '10'], ['20', '11'], ['20', '01'], ['20', '05'], ['07', '10'], ['07', '11'], ['07', '01'], ['07', '05'], ['10', '11'], ['10', '01'], ['10', '05'], ['11', '01'], ['11', '05'], ['01', '05']]</t>
         </is>
       </c>
     </row>
@@ -40149,7 +40149,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '10'], ['21', '01'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '20'], ['33', '10'], ['33', '01'], ['33', '05'], ['33', '07'], ['33', '09'], ['20', '10'], ['20', '01'], ['20', '05'], ['20', '07'], ['20', '09'], ['10', '01'], ['10', '05'], ['10', '07'], ['10', '09'], ['01', '05'], ['01', '07'], ['01', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -40189,7 +40189,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '10'], ['21', '01'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '20'], ['33', '10'], ['33', '01'], ['33', '05'], ['33', '07'], ['33', '09'], ['20', '10'], ['20', '01'], ['20', '05'], ['20', '07'], ['20', '09'], ['10', '01'], ['10', '05'], ['10', '07'], ['10', '09'], ['01', '05'], ['01', '07'], ['01', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -40229,7 +40229,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '10'], ['21', '01'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '20'], ['33', '10'], ['33', '01'], ['33', '05'], ['33', '07'], ['33', '09'], ['20', '10'], ['20', '01'], ['20', '05'], ['20', '07'], ['20', '09'], ['10', '01'], ['10', '05'], ['10', '07'], ['10', '09'], ['01', '05'], ['01', '07'], ['01', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
     </row>
@@ -40269,7 +40269,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '10'], ['20', '01'], ['20', '07'], ['20', '09'], ['20', '24'], ['21', '33'], ['21', '10'], ['21', '01'], ['21', '07'], ['21', '09'], ['21', '24'], ['33', '10'], ['33', '01'], ['33', '07'], ['33', '09'], ['33', '24'], ['10', '01'], ['10', '07'], ['10', '09'], ['10', '24'], ['01', '07'], ['01', '09'], ['01', '24'], ['07', '09'], ['07', '24'], ['09', '24']]</t>
         </is>
       </c>
     </row>
@@ -40309,7 +40309,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '10'], ['20', '33'], ['20', '01'], ['20', '07'], ['20', '09'], ['20', '24'], ['21', '10'], ['21', '33'], ['21', '01'], ['21', '07'], ['21', '09'], ['21', '24'], ['10', '33'], ['10', '01'], ['10', '07'], ['10', '09'], ['10', '24'], ['33', '01'], ['33', '07'], ['33', '09'], ['33', '24'], ['01', '07'], ['01', '09'], ['01', '24'], ['07', '09'], ['07', '24'], ['09', '24']]</t>
         </is>
       </c>
     </row>
